--- a/python-codes/trading/fyers_broker/live_market_data.xlsx
+++ b/python-codes/trading/fyers_broker/live_market_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CC4AA7-5566-4EDE-946F-BA444C755E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466DCC7E-C916-4C28-B591-A0CB925493A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="B2:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,28 +400,28 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>607.15</v>
+        <v>43070.45</v>
       </c>
       <c r="C3">
-        <v>607.04999999999995</v>
+        <v>43070.45</v>
       </c>
       <c r="D3">
-        <v>607.15</v>
+        <v>43070.45</v>
       </c>
       <c r="E3">
-        <v>604</v>
+        <v>43152.65</v>
       </c>
       <c r="F3">
-        <v>608.5</v>
+        <v>43350.25</v>
       </c>
       <c r="G3">
-        <v>603</v>
+        <v>43049.75</v>
       </c>
       <c r="H3">
-        <v>603.35</v>
+        <v>43413.75</v>
       </c>
       <c r="I3">
-        <v>3055141</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
